--- a/04.테스트/통합테스트 시나리오 명세서-영근.xlsx
+++ b/04.테스트/통합테스트 시나리오 명세서-영근.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테스트목록" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="135">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업무담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +334,228 @@
   </si>
   <si>
     <t>파일다이얼로그가 뜨고 png,jpg,jpeg,gif 파일을 선택할 수 있다. 선택된 이미지로 구직자 이미지가 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오영근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구인구직 시스템 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브시스템</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 (Engineer)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공선의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단  계 -  활  동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인자 (Analyst)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합/단위
+테스트
+수행자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 시나리오</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상결과</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과(PASS/FAULT)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 - 아이디와 비밀번호를 입력하고 로그인을 시도한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디와 비밀번호가 맞는 경우 로그인 성공 메시지를 보여주고 기업사용자 메인화면을 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업사용자 메인창 -로그아웃을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업사용자 메인창에서 로그아웃 아이콘을 클릭하면 로그인창으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업사용자 메인창 - 회사정보 등록을 아직 하지 않았다면 회사정보등록여부가 N이라고 출력하고 프로그램 사용기능이 제한된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보 등록을 아직 하지 않았다면 회사정보등록여부가 N이라고 출력한다. 구직정보 보기와 구인정보 관리와 지원현황, 관심구직자 관리는 등록을 하지 않았다면 이용할 수 없도록 막혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보등록창 - 회사상세정보를 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보등록을 하지 않았을 때회사정보관리를 누르면 회사정보등록창이 뜨고 회사로고(가장 큰 이미지칸)와 회사명, 설립년도, 사원수, 기업설명은 필수입력이고 회사이미지칸을 더블클릭하면 이미지 등록이 가능하다. 사원수와 설립년도는 숫자로 입력되지 않으면 등록이 불가하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보관리 -회사정보를 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사정보등록이 완료되었을 때 메인화면에서 회사정보 관리 버튼을 누르면 회사정보수정창이 뜨고 회사명, 설립년도, 사원수가 모두 입력되어야 수정이 가능하다.사원수와 설립년도는 숫자로 입력되지 않으면 수정이 불가하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정창- 회원정보 수정을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이디와 이름, 연락처, 이메일, 주소와 상세주소는 창에 입력이 되어있으며 비밀번호를 변경할 시에는 기존비밀번호가 맞고 새 비밀번호와 새비밀번호 확인이 동일할 경우 변경가능하다. 아이디는 변경불가능 하다. 이름, 연락처, 이메일, 주소, 상세주소는 변경가능하다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보관리창 - 회원정보관리에서 계정탈퇴를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정창에서 탈퇴버튼을 누르면 회원탈퇴 창이 열리고 기존비밀번호와 비밀번호확인이 DB의 비밀번호정보와 일치한다면 탈퇴가 완료된다. 탈퇴가 완료되면 다시 로그인화면으로 돌아가게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직자정보보기창 - 구직자 정보목록을 보기, 정렬, 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 구직자의 정보가 기본적으로 등록일순으로 정렬되어 보여진다. 왼쪽의 콤보박스를 직급순으로 변경하면 경력이 위로 오는 직급순으로 정렬된다. 초기화를 누르면  등록일 기준으로 모든 구직자리스트가 보여진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건검색창- 직급과 학력와 근무지역, 나이의 조건으로 검색한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급과 학력, 근무지역, 나이조건으로 선택된 조건에 맞춰 구직자정보보기 창에 구직자 리스트가 나열된다. 검색조건이 1개든 4개든 선택된 조건들에 모두 충족하는 구직자 정보가 리스트에 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구직자정보보기창 - 구직자상세정보보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 보고싶은 구직자정보를 더블클릭 시, 구직자 상세정보창이 띄워져 자세한 정보를 볼 수 있다. 이 창에서는 외부이력서를 다운로드 할 수도 있고 하트아이콘을 눌러서 관심구직자로 추가할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인정보관리창 - 내가 올린 구인정보를 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인정보관리창의 테이블에 내가올린 구인정보의 정보가 나열되어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인정보관리창 - 내가 올린 구인정보를 수정하거나 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나열된 리스트의 수정하고 싶은 구인글을 더블클릭하면 구인정보수정창이 띄워진다. 제목과 직급, 급여, 학력, 근무지역, 고용형태, 포트폴리오, 필요기술스택, 상세정보는 수정이 가능하고 이름, 연락처, 이메일, 회사명, 회사로고는 수정이 불가하다. 제목과 급여, 상세정보가 입력되지 않다면 수정이 되지 않고 급여가 숫자형식이 아니라면 수정되지 않는다. 삭제를 누르면 정말 삭제할건지 확인메세지가 띄워지고 '예'를 누를 경우 구인정보가 삭제된다. 구인정보가 수정되거나 삭제되면 구인정보관리창이 갱신된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인정보관리창 - 구인정보를 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구인정보수정과 마찬가지로 제목과 직급, 급여, 학력, 근무지역, 고용형태, 포트폴리오, 필요기술스택, 상세정보는 입력이 가능하고 이름, 연락처, 이메일, 회사명, 회사로고는 입력이 불가하다. 제목과 급여, 상세정보가 입력되지 않았다면 등록이 되지 않고 급여가 숫자형식이 아니라면 등록되지 않는다. 구인정보가 등록되면 구인정보관리창의 리스트가 갱신된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원현황창- 내가올린 구인글에 지원자가 있는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원현황의 테이블 리스트에 내가(기업사용자)가 올린 구인글 리스트가 출력된다. 지원현황창에는 내가 올린 구인정보수가 몇 개인지 알 수 있도록 상위에 출력된다. 각 구인글을 더블클릭하면 해당구인글에 지원한 구직자가 없다면 없다는 메시지를 띄워주고 지원한 구직자가 있다면 상세지원현황창을 띄워주고 구직자의 목록을 테이블에 출력해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세지원현황창- 해당 구인글의 지원자에 대한 상세정보와 지원에대한 수락, 거절, 이력서확인을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세지원현황창에 등록한 구인글에 지원한 지원자가 뜬다면 이 지원자를 더블클릭하면 지원자상세정보를 확인할 수 있다. 외부이력서 다운로드를 누르면 원하는 경로와 이름으로 이 구직자가 올린 이력서를 다운받을 수 있다. 이력서가 없다면 등록한 이력서가 없다는 메시지를 띄운다. 지원수락이나 거절을 누르면 지원을 수락하겠냐 혹은 거절하겠냐는 메시지를 띄우고 예를 누르면 수락/ 거절이 완료되며 지원수락혹은 지원거절 버튼이 사라진 창이 다시 띄워진다. 동시에 상세지원현황에 지원자에 대한 지원상태가 갱신된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 구직자창- 나(기업사용자)의 회사에 관심(하트)를 준 구직자의 목록을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관심구직자창에 자회사에 관심을 준 구직자의 목록을 테이블에 나열한다. 관심구직자가 몇 명인지 확인할 수 있도록 내 관심구직자수는 몇 명인지 왼쪽상단에 출력해준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 구직자창 - 관심을 준 구직자의 상세정보를 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">관심을 준 구직자의 리스트를 더블클릭하면 해당 구직자의 상세정보를 볼 수 있다. 외부이력서를 다운받을 수 있으며 이 구직자에 대해 나의 관심(하트)를 줄수도 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,69 +817,69 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -691,9 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1032,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1043,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1060,19 +1275,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1083,7 +1298,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="5" t="s">
@@ -1107,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="41"/>
@@ -1119,14 +1334,14 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
@@ -1140,7 +1355,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -1155,530 +1370,530 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A6" s="15">
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A12" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A13" s="13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A16" s="13">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A17" s="13">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A11" s="15">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A18" s="13">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A12" s="15">
-        <v>7</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A19" s="13">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A13" s="15">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A20" s="13">
+        <v>13</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A14" s="15">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A21" s="13">
+        <v>13</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A15" s="15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A22" s="13">
+        <v>13</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A16" s="15">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A23" s="13">
+        <v>13</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A17" s="15">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A24" s="13">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A18" s="15">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A25" s="13">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A19" s="15">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A26" s="13">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="B26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A20" s="15">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A27" s="13">
         <v>13</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="B27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A21" s="15">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A28" s="13">
         <v>13</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="B28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A22" s="15">
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A29" s="13">
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="B29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A23" s="15">
-        <v>13</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A24" s="15">
-        <v>13</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A25" s="15">
-        <v>13</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A26" s="15">
-        <v>13</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A27" s="15">
-        <v>13</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A28" s="15">
-        <v>13</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A29" s="15">
-        <v>13</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" s="21" customFormat="1"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1"/>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7">
       <c r="B32"/>
@@ -1733,12 +1948,12 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1749,7 +1964,7 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="5" t="s">
@@ -1773,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="41"/>
@@ -1785,7 +2000,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="7" t="s">
@@ -1804,7 +2019,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -1819,247 +2034,247 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A6" s="15">
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A7" s="15">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A8" s="15">
+      <c r="B7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A9" s="15">
+      <c r="B8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A10" s="15">
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A11" s="15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A12" s="15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A13" s="15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A14" s="24">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
+      <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A15" s="22">
+      <c r="B14" s="22"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A15" s="20">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A16" s="15">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A16" s="13">
         <v>10</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A17" s="15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A17" s="13">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A18" s="15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A18" s="13">
         <v>12</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A19" s="15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1">
+      <c r="A19" s="13">
         <v>13</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="22" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="23" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="24" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="25" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="26" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="29" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="30" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="31" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="32" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="33" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="34" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="35" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="36" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="37" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="38" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="39" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="40" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="41" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="42" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="43" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="44" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="45" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="46" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="47" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="48" s="21" customFormat="1" ht="41.25" customHeight="1"/>
-    <row r="49" s="21" customFormat="1"/>
-    <row r="50" s="21" customFormat="1"/>
-    <row r="51" s="21" customFormat="1"/>
-    <row r="52" s="21" customFormat="1"/>
-    <row r="53" s="21" customFormat="1"/>
-    <row r="54" s="21" customFormat="1"/>
-    <row r="55" s="21" customFormat="1"/>
-    <row r="56" s="21" customFormat="1"/>
-    <row r="57" s="21" customFormat="1"/>
-    <row r="58" s="21" customFormat="1"/>
-    <row r="59" s="21" customFormat="1"/>
-    <row r="60" s="21" customFormat="1"/>
-    <row r="61" s="21" customFormat="1"/>
-    <row r="62" s="21" customFormat="1"/>
-    <row r="63" s="21" customFormat="1"/>
-    <row r="64" s="21" customFormat="1"/>
-    <row r="65" spans="1:7" s="21" customFormat="1"/>
-    <row r="66" spans="1:7" s="21" customFormat="1"/>
-    <row r="67" spans="1:7" s="21" customFormat="1"/>
-    <row r="68" spans="1:7" s="21" customFormat="1"/>
-    <row r="69" spans="1:7" s="21" customFormat="1"/>
-    <row r="70" spans="1:7" s="21" customFormat="1"/>
-    <row r="71" spans="1:7" s="21" customFormat="1"/>
-    <row r="72" spans="1:7" s="21" customFormat="1"/>
-    <row r="73" spans="1:7" s="21" customFormat="1"/>
-    <row r="74" spans="1:7" s="21" customFormat="1"/>
-    <row r="75" spans="1:7" s="21" customFormat="1"/>
-    <row r="76" spans="1:7" s="21" customFormat="1"/>
-    <row r="77" spans="1:7" s="21" customFormat="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="28" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="33" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="34" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="35" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="36" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="37" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="38" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="39" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="40" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="41" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="42" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="43" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="44" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="45" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="46" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="47" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="48" s="19" customFormat="1" ht="41.25" customHeight="1"/>
+    <row r="49" s="19" customFormat="1"/>
+    <row r="50" s="19" customFormat="1"/>
+    <row r="51" s="19" customFormat="1"/>
+    <row r="52" s="19" customFormat="1"/>
+    <row r="53" s="19" customFormat="1"/>
+    <row r="54" s="19" customFormat="1"/>
+    <row r="55" s="19" customFormat="1"/>
+    <row r="56" s="19" customFormat="1"/>
+    <row r="57" s="19" customFormat="1"/>
+    <row r="58" s="19" customFormat="1"/>
+    <row r="59" s="19" customFormat="1"/>
+    <row r="60" s="19" customFormat="1"/>
+    <row r="61" s="19" customFormat="1"/>
+    <row r="62" s="19" customFormat="1"/>
+    <row r="63" s="19" customFormat="1"/>
+    <row r="64" s="19" customFormat="1"/>
+    <row r="65" spans="1:7" s="19" customFormat="1"/>
+    <row r="66" spans="1:7" s="19" customFormat="1"/>
+    <row r="67" spans="1:7" s="19" customFormat="1"/>
+    <row r="68" spans="1:7" s="19" customFormat="1"/>
+    <row r="69" spans="1:7" s="19" customFormat="1"/>
+    <row r="70" spans="1:7" s="19" customFormat="1"/>
+    <row r="71" spans="1:7" s="19" customFormat="1"/>
+    <row r="72" spans="1:7" s="19" customFormat="1"/>
+    <row r="73" spans="1:7" s="19" customFormat="1"/>
+    <row r="74" spans="1:7" s="19" customFormat="1"/>
+    <row r="75" spans="1:7" s="19" customFormat="1"/>
+    <row r="76" spans="1:7" s="19" customFormat="1"/>
+    <row r="77" spans="1:7" s="19" customFormat="1"/>
     <row r="78" spans="1:7">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7">
       <c r="B79"/>
@@ -2107,72 +2322,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E1" s="35"/>
       <c r="F1" s="5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="H1" s="40"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="42"/>
       <c r="E2" s="43"/>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>134</v>
+      </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
     </row>
@@ -2185,262 +2402,452 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="27"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1">
       <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" ht="27">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="27">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1" ht="67.5">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="67.5">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A12" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A13" s="13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A14" s="20">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" ht="54">
+      <c r="A15" s="13">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="27">
+      <c r="A16" s="13">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="121.5">
+      <c r="A17" s="13">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="81">
+      <c r="A18" s="13">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="81">
+      <c r="A19" s="13">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="121.5">
+      <c r="A20" s="13">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="B20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="40.5">
+      <c r="A21" s="13">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="B21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="40.5">
+      <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A11" s="15">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A12" s="15">
-        <v>7</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A13" s="15">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A14" s="24">
-        <v>8</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A15" s="22">
-        <v>9</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A16" s="15">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A17" s="15">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A18" s="15">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1">
-      <c r="A19" s="15">
-        <v>13</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="22" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="23" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="24" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="25" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="26" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="28" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="29" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="30" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="31" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="32" spans="1:7" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="33" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="34" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="35" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="36" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="37" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="38" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="39" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="40" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="41" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="42" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="43" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="44" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="45" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="46" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="47" s="21" customFormat="1" ht="41.1" customHeight="1"/>
-    <row r="48" s="21" customFormat="1" ht="41.25" customHeight="1"/>
-    <row r="49" s="21" customFormat="1"/>
-    <row r="50" s="21" customFormat="1"/>
-    <row r="51" s="21" customFormat="1"/>
-    <row r="52" s="21" customFormat="1"/>
-    <row r="53" s="21" customFormat="1"/>
-    <row r="54" s="21" customFormat="1"/>
-    <row r="55" s="21" customFormat="1"/>
-    <row r="56" s="21" customFormat="1"/>
-    <row r="57" s="21" customFormat="1"/>
-    <row r="58" s="21" customFormat="1"/>
-    <row r="59" s="21" customFormat="1"/>
-    <row r="60" s="21" customFormat="1"/>
-    <row r="61" s="21" customFormat="1"/>
-    <row r="62" s="21" customFormat="1"/>
-    <row r="63" s="21" customFormat="1"/>
-    <row r="64" s="21" customFormat="1"/>
-    <row r="65" spans="1:7" s="21" customFormat="1"/>
-    <row r="66" spans="1:7" s="21" customFormat="1"/>
-    <row r="67" spans="1:7" s="21" customFormat="1"/>
-    <row r="68" spans="1:7" s="21" customFormat="1"/>
-    <row r="69" spans="1:7" s="21" customFormat="1"/>
-    <row r="70" spans="1:7" s="21" customFormat="1"/>
-    <row r="71" spans="1:7" s="21" customFormat="1"/>
-    <row r="72" spans="1:7" s="21" customFormat="1"/>
-    <row r="73" spans="1:7" s="21" customFormat="1"/>
-    <row r="74" spans="1:7" s="21" customFormat="1"/>
-    <row r="75" spans="1:7" s="21" customFormat="1"/>
-    <row r="76" spans="1:7" s="21" customFormat="1"/>
-    <row r="77" spans="1:7" s="21" customFormat="1"/>
+      <c r="B22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="24" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="25" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="28" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="33" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="34" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="35" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="36" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="37" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="38" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="39" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="40" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="41" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="42" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="43" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="44" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="45" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="46" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="47" s="19" customFormat="1" ht="41.1" customHeight="1"/>
+    <row r="48" s="19" customFormat="1" ht="41.25" customHeight="1"/>
+    <row r="49" s="19" customFormat="1"/>
+    <row r="50" s="19" customFormat="1"/>
+    <row r="51" s="19" customFormat="1"/>
+    <row r="52" s="19" customFormat="1"/>
+    <row r="53" s="19" customFormat="1"/>
+    <row r="54" s="19" customFormat="1"/>
+    <row r="55" s="19" customFormat="1"/>
+    <row r="56" s="19" customFormat="1"/>
+    <row r="57" s="19" customFormat="1"/>
+    <row r="58" s="19" customFormat="1"/>
+    <row r="59" s="19" customFormat="1"/>
+    <row r="60" s="19" customFormat="1"/>
+    <row r="61" s="19" customFormat="1"/>
+    <row r="62" s="19" customFormat="1"/>
+    <row r="63" s="19" customFormat="1"/>
+    <row r="64" s="19" customFormat="1"/>
+    <row r="65" spans="1:7" s="19" customFormat="1"/>
+    <row r="66" spans="1:7" s="19" customFormat="1"/>
+    <row r="67" spans="1:7" s="19" customFormat="1"/>
+    <row r="68" spans="1:7" s="19" customFormat="1"/>
+    <row r="69" spans="1:7" s="19" customFormat="1"/>
+    <row r="70" spans="1:7" s="19" customFormat="1"/>
+    <row r="71" spans="1:7" s="19" customFormat="1"/>
+    <row r="72" spans="1:7" s="19" customFormat="1"/>
+    <row r="73" spans="1:7" s="19" customFormat="1"/>
+    <row r="74" spans="1:7" s="19" customFormat="1"/>
+    <row r="75" spans="1:7" s="19" customFormat="1"/>
+    <row r="76" spans="1:7" s="19" customFormat="1"/>
+    <row r="77" spans="1:7" s="19" customFormat="1"/>
     <row r="78" spans="1:7">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7">
       <c r="B79"/>
